--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ddr1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.10353721527798</v>
+        <v>14.513629</v>
       </c>
       <c r="H2">
-        <v>6.10353721527798</v>
+        <v>43.540887</v>
       </c>
       <c r="I2">
-        <v>0.002622480213459095</v>
+        <v>0.005850682752110994</v>
       </c>
       <c r="J2">
-        <v>0.002622480213459095</v>
+        <v>0.005913450266836087</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.289786134628029</v>
+        <v>0.357733</v>
       </c>
       <c r="N2">
-        <v>0.289786134628029</v>
+        <v>1.073199</v>
       </c>
       <c r="O2">
-        <v>0.03088713013362999</v>
+        <v>0.03603418328298074</v>
       </c>
       <c r="P2">
-        <v>0.03088713013362999</v>
+        <v>0.04555337018213343</v>
       </c>
       <c r="Q2">
-        <v>1.76872045717373</v>
+        <v>5.192004043057</v>
       </c>
       <c r="R2">
-        <v>1.76872045717373</v>
+        <v>46.728036387513</v>
       </c>
       <c r="S2">
-        <v>8.100088762598083E-05</v>
+        <v>0.0002108245746201417</v>
       </c>
       <c r="T2">
-        <v>8.100088762598083E-05</v>
+        <v>0.00026937758905882</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.10353721527798</v>
+        <v>14.513629</v>
       </c>
       <c r="H3">
-        <v>6.10353721527798</v>
+        <v>43.540887</v>
       </c>
       <c r="I3">
-        <v>0.002622480213459095</v>
+        <v>0.005850682752110994</v>
       </c>
       <c r="J3">
-        <v>0.002622480213459095</v>
+        <v>0.005913450266836087</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.31758544027849</v>
+        <v>2.569221333333333</v>
       </c>
       <c r="N3">
-        <v>2.31758544027849</v>
+        <v>7.707663999999999</v>
       </c>
       <c r="O3">
-        <v>0.2470220432788232</v>
+        <v>0.2587957846211489</v>
       </c>
       <c r="P3">
-        <v>0.2470220432788232</v>
+        <v>0.3271621306314144</v>
       </c>
       <c r="Q3">
-        <v>14.14546898432616</v>
+        <v>37.28872525088533</v>
       </c>
       <c r="R3">
-        <v>14.14546898432616</v>
+        <v>335.5985272579679</v>
       </c>
       <c r="S3">
-        <v>0.0006478104207869502</v>
+        <v>0.001514132033401988</v>
       </c>
       <c r="T3">
-        <v>0.0006478104207869502</v>
+        <v>0.001934656988681</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.10353721527798</v>
+        <v>14.513629</v>
       </c>
       <c r="H4">
-        <v>6.10353721527798</v>
+        <v>43.540887</v>
       </c>
       <c r="I4">
-        <v>0.002622480213459095</v>
+        <v>0.005850682752110994</v>
       </c>
       <c r="J4">
-        <v>0.002622480213459095</v>
+        <v>0.005913450266836087</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.34145594673153</v>
+        <v>0.5272676666666666</v>
       </c>
       <c r="N4">
-        <v>0.34145594673153</v>
+        <v>1.581803</v>
       </c>
       <c r="O4">
-        <v>0.03639440608549564</v>
+        <v>0.05311128618230987</v>
       </c>
       <c r="P4">
-        <v>0.03639440608549564</v>
+        <v>0.06714174874763133</v>
       </c>
       <c r="Q4">
-        <v>2.084089078253869</v>
+        <v>7.652567297695665</v>
       </c>
       <c r="R4">
-        <v>2.084089078253869</v>
+        <v>68.87310567926099</v>
       </c>
       <c r="S4">
-        <v>9.544360983980761E-05</v>
+        <v>0.0003107372860092713</v>
       </c>
       <c r="T4">
-        <v>9.544360983980761E-05</v>
+        <v>0.000397039392047522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.10353721527798</v>
+        <v>14.513629</v>
       </c>
       <c r="H5">
-        <v>6.10353721527798</v>
+        <v>43.540887</v>
       </c>
       <c r="I5">
-        <v>0.002622480213459095</v>
+        <v>0.005850682752110994</v>
       </c>
       <c r="J5">
-        <v>0.002622480213459095</v>
+        <v>0.005913450266836087</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.242595246646381</v>
+        <v>0.2497326666666667</v>
       </c>
       <c r="N5">
-        <v>0.242595246646381</v>
+        <v>0.749198</v>
       </c>
       <c r="O5">
-        <v>0.025857244559285</v>
+        <v>0.02515538874639522</v>
       </c>
       <c r="P5">
-        <v>0.025857244559285</v>
+        <v>0.03180071341262338</v>
       </c>
       <c r="Q5">
-        <v>1.480689116155727</v>
+        <v>3.624527273180667</v>
       </c>
       <c r="R5">
-        <v>1.480689116155727</v>
+        <v>32.620745458626</v>
       </c>
       <c r="S5">
-        <v>6.781011223129776E-05</v>
+        <v>0.0001471761990611815</v>
       </c>
       <c r="T5">
-        <v>6.781011223129776E-05</v>
+        <v>0.0001880519372154557</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.10353721527798</v>
+        <v>14.513629</v>
       </c>
       <c r="H6">
-        <v>6.10353721527798</v>
+        <v>43.540887</v>
       </c>
       <c r="I6">
-        <v>0.002622480213459095</v>
+        <v>0.005850682752110994</v>
       </c>
       <c r="J6">
-        <v>0.002622480213459095</v>
+        <v>0.005913450266836087</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.19067694037413</v>
+        <v>6.2236465</v>
       </c>
       <c r="N6">
-        <v>6.19067694037413</v>
+        <v>12.447293</v>
       </c>
       <c r="O6">
-        <v>0.6598391759427661</v>
+        <v>0.6269033571671654</v>
       </c>
       <c r="P6">
-        <v>0.6598391759427661</v>
+        <v>0.5283420370261975</v>
       </c>
       <c r="Q6">
-        <v>37.78502709333672</v>
+        <v>90.32769632814851</v>
       </c>
       <c r="R6">
-        <v>37.78502709333672</v>
+        <v>541.966177968891</v>
       </c>
       <c r="S6">
-        <v>0.001730415182975059</v>
+        <v>0.003667812659018412</v>
       </c>
       <c r="T6">
-        <v>0.001730415182975059</v>
+        <v>0.003124324359833289</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2242.34772846822</v>
+        <v>2384.33138</v>
       </c>
       <c r="H7">
-        <v>2242.34772846822</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I7">
-        <v>0.9634597680314189</v>
+        <v>0.9611632266666733</v>
       </c>
       <c r="J7">
-        <v>0.9634597680314189</v>
+        <v>0.9714748141410159</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.289786134628029</v>
+        <v>0.357733</v>
       </c>
       <c r="N7">
-        <v>0.289786134628029</v>
+        <v>1.073199</v>
       </c>
       <c r="O7">
-        <v>0.03088713013362999</v>
+        <v>0.03603418328298074</v>
       </c>
       <c r="P7">
-        <v>0.03088713013362999</v>
+        <v>0.04555337018213343</v>
       </c>
       <c r="Q7">
-        <v>649.8012807247466</v>
+        <v>852.9540175615401</v>
       </c>
       <c r="R7">
-        <v>649.8012807247466</v>
+        <v>7676.586158053861</v>
       </c>
       <c r="S7">
-        <v>0.0297585072337034</v>
+        <v>0.03463473187456807</v>
       </c>
       <c r="T7">
-        <v>0.0297585072337034</v>
+        <v>0.04425395183118497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2242.34772846822</v>
+        <v>2384.33138</v>
       </c>
       <c r="H8">
-        <v>2242.34772846822</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I8">
-        <v>0.9634597680314189</v>
+        <v>0.9611632266666733</v>
       </c>
       <c r="J8">
-        <v>0.9634597680314189</v>
+        <v>0.9714748141410159</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.31758544027849</v>
+        <v>2.569221333333333</v>
       </c>
       <c r="N8">
-        <v>2.31758544027849</v>
+        <v>7.707663999999999</v>
       </c>
       <c r="O8">
-        <v>0.2470220432788232</v>
+        <v>0.2587957846211489</v>
       </c>
       <c r="P8">
-        <v>0.2470220432788232</v>
+        <v>0.3271621306314144</v>
       </c>
       <c r="Q8">
-        <v>5196.832447539491</v>
+        <v>6125.875047232106</v>
       </c>
       <c r="R8">
-        <v>5196.832447539491</v>
+        <v>55132.87542508896</v>
       </c>
       <c r="S8">
-        <v>0.2379958005160621</v>
+        <v>0.248744991394197</v>
       </c>
       <c r="T8">
-        <v>0.2379958005160621</v>
+        <v>0.317829770049132</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2242.34772846822</v>
+        <v>2384.33138</v>
       </c>
       <c r="H9">
-        <v>2242.34772846822</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I9">
-        <v>0.9634597680314189</v>
+        <v>0.9611632266666733</v>
       </c>
       <c r="J9">
-        <v>0.9634597680314189</v>
+        <v>0.9714748141410159</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.34145594673153</v>
+        <v>0.5272676666666666</v>
       </c>
       <c r="N9">
-        <v>0.34145594673153</v>
+        <v>1.581803</v>
       </c>
       <c r="O9">
-        <v>0.03639440608549564</v>
+        <v>0.05311128618230987</v>
       </c>
       <c r="P9">
-        <v>0.03639440608549564</v>
+        <v>0.06714174874763133</v>
       </c>
       <c r="Q9">
-        <v>765.6629665254118</v>
+        <v>1257.180843292713</v>
       </c>
       <c r="R9">
-        <v>765.6629665254118</v>
+        <v>11314.62758963442</v>
       </c>
       <c r="S9">
-        <v>0.03506454604477289</v>
+        <v>0.05104861519940605</v>
       </c>
       <c r="T9">
-        <v>0.03506454604477289</v>
+        <v>0.06522651788570794</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2242.34772846822</v>
+        <v>2384.33138</v>
       </c>
       <c r="H10">
-        <v>2242.34772846822</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I10">
-        <v>0.9634597680314189</v>
+        <v>0.9611632266666733</v>
       </c>
       <c r="J10">
-        <v>0.9634597680314189</v>
+        <v>0.9714748141410159</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.242595246646381</v>
+        <v>0.2497326666666667</v>
       </c>
       <c r="N10">
-        <v>0.242595246646381</v>
+        <v>0.749198</v>
       </c>
       <c r="O10">
-        <v>0.025857244559285</v>
+        <v>0.02515538874639522</v>
       </c>
       <c r="P10">
-        <v>0.025857244559285</v>
+        <v>0.03180071341262338</v>
       </c>
       <c r="Q10">
-        <v>543.9829002547</v>
+        <v>595.4454337444134</v>
       </c>
       <c r="R10">
-        <v>543.9829002547</v>
+        <v>5359.008903699721</v>
       </c>
       <c r="S10">
-        <v>0.02491241484502039</v>
+        <v>0.02417843461553975</v>
       </c>
       <c r="T10">
-        <v>0.02491241484502039</v>
+        <v>0.03089359215208001</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2242.34772846822</v>
+        <v>2384.33138</v>
       </c>
       <c r="H11">
-        <v>2242.34772846822</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I11">
-        <v>0.9634597680314189</v>
+        <v>0.9611632266666733</v>
       </c>
       <c r="J11">
-        <v>0.9634597680314189</v>
+        <v>0.9714748141410159</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.19067694037413</v>
+        <v>6.2236465</v>
       </c>
       <c r="N11">
-        <v>6.19067694037413</v>
+        <v>12.447293</v>
       </c>
       <c r="O11">
-        <v>0.6598391759427661</v>
+        <v>0.6269033571671654</v>
       </c>
       <c r="P11">
-        <v>0.6598391759427661</v>
+        <v>0.5283420370261975</v>
       </c>
       <c r="Q11">
-        <v>13881.65037492852</v>
+        <v>14839.23564797717</v>
       </c>
       <c r="R11">
-        <v>13881.65037492852</v>
+        <v>89035.41388786303</v>
       </c>
       <c r="S11">
-        <v>0.63572849939186</v>
+        <v>0.6025564535829626</v>
       </c>
       <c r="T11">
-        <v>0.63572849939186</v>
+        <v>0.513270982222911</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.470619117884544</v>
+        <v>1.394343666666667</v>
       </c>
       <c r="H12">
-        <v>0.470619117884544</v>
+        <v>4.183031</v>
       </c>
       <c r="I12">
-        <v>0.0002022088636796458</v>
+        <v>0.0005620828836869033</v>
       </c>
       <c r="J12">
-        <v>0.0002022088636796458</v>
+        <v>0.0005681130424176619</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.289786134628029</v>
+        <v>0.357733</v>
       </c>
       <c r="N12">
-        <v>0.289786134628029</v>
+        <v>1.073199</v>
       </c>
       <c r="O12">
-        <v>0.03088713013362999</v>
+        <v>0.03603418328298074</v>
       </c>
       <c r="P12">
-        <v>0.03088713013362999</v>
+        <v>0.04555337018213343</v>
       </c>
       <c r="Q12">
-        <v>0.1363788950538147</v>
+        <v>0.4988027429076667</v>
       </c>
       <c r="R12">
-        <v>0.1363788950538147</v>
+        <v>4.489224686169</v>
       </c>
       <c r="S12">
-        <v>6.245651486646667E-06</v>
+        <v>2.025419765100022E-05</v>
       </c>
       <c r="T12">
-        <v>6.245651486646667E-06</v>
+        <v>2.587946372654982E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.470619117884544</v>
+        <v>1.394343666666667</v>
       </c>
       <c r="H13">
-        <v>0.470619117884544</v>
+        <v>4.183031</v>
       </c>
       <c r="I13">
-        <v>0.0002022088636796458</v>
+        <v>0.0005620828836869033</v>
       </c>
       <c r="J13">
-        <v>0.0002022088636796458</v>
+        <v>0.0005681130424176619</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.31758544027849</v>
+        <v>2.569221333333333</v>
       </c>
       <c r="N13">
-        <v>2.31758544027849</v>
+        <v>7.707663999999999</v>
       </c>
       <c r="O13">
-        <v>0.2470220432788232</v>
+        <v>0.2587957846211489</v>
       </c>
       <c r="P13">
-        <v>0.2470220432788232</v>
+        <v>0.3271621306314144</v>
       </c>
       <c r="Q13">
-        <v>1.090700015525925</v>
+        <v>3.582377494398222</v>
       </c>
       <c r="R13">
-        <v>1.090700015525925</v>
+        <v>32.24139744958399</v>
       </c>
       <c r="S13">
-        <v>4.995004667523514E-05</v>
+        <v>0.0001454646809058701</v>
       </c>
       <c r="T13">
-        <v>4.995004667523514E-05</v>
+        <v>0.0001858650733968573</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.470619117884544</v>
+        <v>1.394343666666667</v>
       </c>
       <c r="H14">
-        <v>0.470619117884544</v>
+        <v>4.183031</v>
       </c>
       <c r="I14">
-        <v>0.0002022088636796458</v>
+        <v>0.0005620828836869033</v>
       </c>
       <c r="J14">
-        <v>0.0002022088636796458</v>
+        <v>0.0005681130424176619</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.34145594673153</v>
+        <v>0.5272676666666666</v>
       </c>
       <c r="N14">
-        <v>0.34145594673153</v>
+        <v>1.581803</v>
       </c>
       <c r="O14">
-        <v>0.03639440608549564</v>
+        <v>0.05311128618230987</v>
       </c>
       <c r="P14">
-        <v>0.03639440608549564</v>
+        <v>0.06714174874763133</v>
       </c>
       <c r="Q14">
-        <v>0.1606956964472245</v>
+        <v>0.7351923316547776</v>
       </c>
       <c r="R14">
-        <v>0.1606956964472245</v>
+        <v>6.616730984892999</v>
       </c>
       <c r="S14">
-        <v>7.359271498843661E-06</v>
+        <v>2.985294489367311E-05</v>
       </c>
       <c r="T14">
-        <v>7.359271498843661E-06</v>
+        <v>3.814410315425908E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.470619117884544</v>
+        <v>1.394343666666667</v>
       </c>
       <c r="H15">
-        <v>0.470619117884544</v>
+        <v>4.183031</v>
       </c>
       <c r="I15">
-        <v>0.0002022088636796458</v>
+        <v>0.0005620828836869033</v>
       </c>
       <c r="J15">
-        <v>0.0002022088636796458</v>
+        <v>0.0005681130424176619</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.242595246646381</v>
+        <v>0.2497326666666667</v>
       </c>
       <c r="N15">
-        <v>0.242595246646381</v>
+        <v>0.749198</v>
       </c>
       <c r="O15">
-        <v>0.025857244559285</v>
+        <v>0.02515538874639522</v>
       </c>
       <c r="P15">
-        <v>0.025857244559285</v>
+        <v>0.03180071341262338</v>
       </c>
       <c r="Q15">
-        <v>0.1141699609797032</v>
+        <v>0.3482131621264445</v>
       </c>
       <c r="R15">
-        <v>0.1141699609797032</v>
+        <v>3.133918459138</v>
       </c>
       <c r="S15">
-        <v>5.228564040219725E-06</v>
+        <v>1.41394134468389E-05</v>
       </c>
       <c r="T15">
-        <v>5.228564040219725E-06</v>
+        <v>1.806640004789762E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.470619117884544</v>
+        <v>1.394343666666667</v>
       </c>
       <c r="H16">
-        <v>0.470619117884544</v>
+        <v>4.183031</v>
       </c>
       <c r="I16">
-        <v>0.0002022088636796458</v>
+        <v>0.0005620828836869033</v>
       </c>
       <c r="J16">
-        <v>0.0002022088636796458</v>
+        <v>0.0005681130424176619</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.19067694037413</v>
+        <v>6.2236465</v>
       </c>
       <c r="N16">
-        <v>6.19067694037413</v>
+        <v>12.447293</v>
       </c>
       <c r="O16">
-        <v>0.6598391759427661</v>
+        <v>0.6269033571671654</v>
       </c>
       <c r="P16">
-        <v>0.6598391759427661</v>
+        <v>0.5283420370261975</v>
       </c>
       <c r="Q16">
-        <v>2.913450920787061</v>
+        <v>8.677902080847167</v>
       </c>
       <c r="R16">
-        <v>2.913450920787061</v>
+        <v>52.067412485083</v>
       </c>
       <c r="S16">
-        <v>0.0001334253299787006</v>
+        <v>0.000352371646789521</v>
       </c>
       <c r="T16">
-        <v>0.0001334253299787006</v>
+        <v>0.0003001580020920981</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>78.4692558270205</v>
+        <v>1.441060333333334</v>
       </c>
       <c r="H17">
-        <v>78.4692558270205</v>
+        <v>4.323181000000001</v>
       </c>
       <c r="I17">
-        <v>0.03371554289144264</v>
+        <v>0.0005809151410019268</v>
       </c>
       <c r="J17">
-        <v>0.03371554289144264</v>
+        <v>0.0005871473366638283</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.289786134628029</v>
+        <v>0.357733</v>
       </c>
       <c r="N17">
-        <v>0.289786134628029</v>
+        <v>1.073199</v>
       </c>
       <c r="O17">
-        <v>0.03088713013362999</v>
+        <v>0.03603418328298074</v>
       </c>
       <c r="P17">
-        <v>0.03088713013362999</v>
+        <v>0.04555337018213343</v>
       </c>
       <c r="Q17">
-        <v>22.73930233325021</v>
+        <v>0.5155148362243335</v>
       </c>
       <c r="R17">
-        <v>22.73930233325021</v>
+        <v>4.639633526019001</v>
       </c>
       <c r="S17">
-        <v>0.001041376360813972</v>
+        <v>2.093280266272203E-05</v>
       </c>
       <c r="T17">
-        <v>0.001041376360813972</v>
+        <v>2.67465399785011E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>78.4692558270205</v>
+        <v>1.441060333333334</v>
       </c>
       <c r="H18">
-        <v>78.4692558270205</v>
+        <v>4.323181000000001</v>
       </c>
       <c r="I18">
-        <v>0.03371554289144264</v>
+        <v>0.0005809151410019268</v>
       </c>
       <c r="J18">
-        <v>0.03371554289144264</v>
+        <v>0.0005871473366638283</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.31758544027849</v>
+        <v>2.569221333333333</v>
       </c>
       <c r="N18">
-        <v>2.31758544027849</v>
+        <v>7.707663999999999</v>
       </c>
       <c r="O18">
-        <v>0.2470220432788232</v>
+        <v>0.2587957846211489</v>
       </c>
       <c r="P18">
-        <v>0.2470220432788232</v>
+        <v>0.3271621306314144</v>
       </c>
       <c r="Q18">
-        <v>181.8592048141908</v>
+        <v>3.702402951020445</v>
       </c>
       <c r="R18">
-        <v>181.8592048141908</v>
+        <v>33.321626559184</v>
       </c>
       <c r="S18">
-        <v>0.008328482295298962</v>
+        <v>0.000150338389713899</v>
       </c>
       <c r="T18">
-        <v>0.008328482295298962</v>
+        <v>0.0001920923736574984</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>78.4692558270205</v>
+        <v>1.441060333333334</v>
       </c>
       <c r="H19">
-        <v>78.4692558270205</v>
+        <v>4.323181000000001</v>
       </c>
       <c r="I19">
-        <v>0.03371554289144264</v>
+        <v>0.0005809151410019268</v>
       </c>
       <c r="J19">
-        <v>0.03371554289144264</v>
+        <v>0.0005871473366638283</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.34145594673153</v>
+        <v>0.5272676666666666</v>
       </c>
       <c r="N19">
-        <v>0.34145594673153</v>
+        <v>1.581803</v>
       </c>
       <c r="O19">
-        <v>0.03639440608549564</v>
+        <v>0.05311128618230987</v>
       </c>
       <c r="P19">
-        <v>0.03639440608549564</v>
+        <v>0.06714174874763133</v>
       </c>
       <c r="Q19">
-        <v>26.79379403773391</v>
+        <v>0.7598245194825556</v>
       </c>
       <c r="R19">
-        <v>26.79379403773391</v>
+        <v>6.838420675343</v>
       </c>
       <c r="S19">
-        <v>0.001227057159384109</v>
+        <v>3.085315030139023E-05</v>
       </c>
       <c r="T19">
-        <v>0.001227057159384109</v>
+        <v>3.942209895612367E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>78.4692558270205</v>
+        <v>1.441060333333334</v>
       </c>
       <c r="H20">
-        <v>78.4692558270205</v>
+        <v>4.323181000000001</v>
       </c>
       <c r="I20">
-        <v>0.03371554289144264</v>
+        <v>0.0005809151410019268</v>
       </c>
       <c r="J20">
-        <v>0.03371554289144264</v>
+        <v>0.0005871473366638283</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.242595246646381</v>
+        <v>0.2497326666666667</v>
       </c>
       <c r="N20">
-        <v>0.242595246646381</v>
+        <v>0.749198</v>
       </c>
       <c r="O20">
-        <v>0.025857244559285</v>
+        <v>0.02515538874639522</v>
       </c>
       <c r="P20">
-        <v>0.025857244559285</v>
+        <v>0.03180071341262338</v>
       </c>
       <c r="Q20">
-        <v>19.03626847151401</v>
+        <v>0.359879839870889</v>
       </c>
       <c r="R20">
-        <v>19.03626847151401</v>
+        <v>3.238918558838001</v>
       </c>
       <c r="S20">
-        <v>0.0008717910379930952</v>
+        <v>1.461314620057046E-05</v>
       </c>
       <c r="T20">
-        <v>0.0008717910379930952</v>
+        <v>1.86717041842315E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.441060333333334</v>
+      </c>
+      <c r="H21">
+        <v>4.323181000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.0005809151410019268</v>
+      </c>
+      <c r="J21">
+        <v>0.0005871473366638283</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.2236465</v>
+      </c>
+      <c r="N21">
+        <v>12.447293</v>
+      </c>
+      <c r="O21">
+        <v>0.6269033571671654</v>
+      </c>
+      <c r="P21">
+        <v>0.5283420370261975</v>
+      </c>
+      <c r="Q21">
+        <v>8.968650099838834</v>
+      </c>
+      <c r="R21">
+        <v>53.81190059903301</v>
+      </c>
+      <c r="S21">
+        <v>0.0003641776521233452</v>
+      </c>
+      <c r="T21">
+        <v>0.0003102146198874737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>78.9922905</v>
+      </c>
+      <c r="H22">
+        <v>157.984581</v>
+      </c>
+      <c r="I22">
+        <v>0.03184309255652677</v>
+      </c>
+      <c r="J22">
+        <v>0.02145647521306668</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.357733</v>
+      </c>
+      <c r="N22">
+        <v>1.073199</v>
+      </c>
+      <c r="O22">
+        <v>0.03603418328298074</v>
+      </c>
+      <c r="P22">
+        <v>0.04555337018213343</v>
+      </c>
+      <c r="Q22">
+        <v>28.2581490574365</v>
+      </c>
+      <c r="R22">
+        <v>169.548894344619</v>
+      </c>
+      <c r="S22">
+        <v>0.001147439833478805</v>
+      </c>
+      <c r="T22">
+        <v>0.0009774147581845969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>78.9922905</v>
+      </c>
+      <c r="H23">
+        <v>157.984581</v>
+      </c>
+      <c r="I23">
+        <v>0.03184309255652677</v>
+      </c>
+      <c r="J23">
+        <v>0.02145647521306668</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.569221333333333</v>
+      </c>
+      <c r="N23">
+        <v>7.707663999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.2587957846211489</v>
+      </c>
+      <c r="P23">
+        <v>0.3271621306314144</v>
+      </c>
+      <c r="Q23">
+        <v>202.948677921464</v>
+      </c>
+      <c r="R23">
+        <v>1217.692067528784</v>
+      </c>
+      <c r="S23">
+        <v>0.008240858122930211</v>
+      </c>
+      <c r="T23">
+        <v>0.007019746146547027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>78.9922905</v>
+      </c>
+      <c r="H24">
+        <v>157.984581</v>
+      </c>
+      <c r="I24">
+        <v>0.03184309255652677</v>
+      </c>
+      <c r="J24">
+        <v>0.02145647521306668</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.5272676666666666</v>
+      </c>
+      <c r="N24">
+        <v>1.581803</v>
+      </c>
+      <c r="O24">
+        <v>0.05311128618230987</v>
+      </c>
+      <c r="P24">
+        <v>0.06714174874763133</v>
+      </c>
+      <c r="Q24">
+        <v>41.65008069659049</v>
+      </c>
+      <c r="R24">
+        <v>249.900484179543</v>
+      </c>
+      <c r="S24">
+        <v>0.001691227601699474</v>
+      </c>
+      <c r="T24">
+        <v>0.001440625267765503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>78.4692558270205</v>
-      </c>
-      <c r="H21">
-        <v>78.4692558270205</v>
-      </c>
-      <c r="I21">
-        <v>0.03371554289144264</v>
-      </c>
-      <c r="J21">
-        <v>0.03371554289144264</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>6.19067694037413</v>
-      </c>
-      <c r="N21">
-        <v>6.19067694037413</v>
-      </c>
-      <c r="O21">
-        <v>0.6598391759427661</v>
-      </c>
-      <c r="P21">
-        <v>0.6598391759427661</v>
-      </c>
-      <c r="Q21">
-        <v>485.7778125766542</v>
-      </c>
-      <c r="R21">
-        <v>485.7778125766542</v>
-      </c>
-      <c r="S21">
-        <v>0.02224683603795249</v>
-      </c>
-      <c r="T21">
-        <v>0.02224683603795249</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>78.9922905</v>
+      </c>
+      <c r="H25">
+        <v>157.984581</v>
+      </c>
+      <c r="I25">
+        <v>0.03184309255652677</v>
+      </c>
+      <c r="J25">
+        <v>0.02145647521306668</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2497326666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.749198</v>
+      </c>
+      <c r="O25">
+        <v>0.02515538874639522</v>
+      </c>
+      <c r="P25">
+        <v>0.03180071341262338</v>
+      </c>
+      <c r="Q25">
+        <v>19.726955352673</v>
+      </c>
+      <c r="R25">
+        <v>118.361732116038</v>
+      </c>
+      <c r="S25">
+        <v>0.0008010253721468749</v>
+      </c>
+      <c r="T25">
+        <v>0.0006823312190957909</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>78.9922905</v>
+      </c>
+      <c r="H26">
+        <v>157.984581</v>
+      </c>
+      <c r="I26">
+        <v>0.03184309255652677</v>
+      </c>
+      <c r="J26">
+        <v>0.02145647521306668</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.2236465</v>
+      </c>
+      <c r="N26">
+        <v>12.447293</v>
+      </c>
+      <c r="O26">
+        <v>0.6269033571671654</v>
+      </c>
+      <c r="P26">
+        <v>0.5283420370261975</v>
+      </c>
+      <c r="Q26">
+        <v>491.6200922973082</v>
+      </c>
+      <c r="R26">
+        <v>1966.480369189233</v>
+      </c>
+      <c r="S26">
+        <v>0.0199625416262714</v>
+      </c>
+      <c r="T26">
+        <v>0.01133635782147377</v>
       </c>
     </row>
   </sheetData>
